--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Groedl\Documents\Projekte\Shot_Pong_Tisch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Groedl\Documents\Projekte\ShotPongTisch\Code\ShotPongTisch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9DDBFE-1F6E-496E-8546-67C92EA957D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8565D1-40F0-436E-8116-58B7B59C592D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CB18AD84-9098-4B3C-8374-DEDB6160ABEE}"/>
+    <workbookView xWindow="4620" yWindow="1530" windowWidth="21600" windowHeight="11385" xr2:uid="{CB18AD84-9098-4B3C-8374-DEDB6160ABEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>Teil</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>Conrad</t>
+  </si>
+  <si>
+    <t>bis jetzt nicht die ganze zweite rolle</t>
   </si>
 </sst>
 </file>
@@ -649,7 +652,7 @@
   <dimension ref="A2:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,7 +729,7 @@
       <c r="F7" s="16"/>
       <c r="G7" s="6">
         <f>SUM(G10:G39)</f>
-        <v>113.98</v>
+        <v>122.455</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1027,7 +1030,7 @@
         <v>34</v>
       </c>
       <c r="D18" s="2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E18" s="4">
         <v>16.95</v>
@@ -1037,11 +1040,13 @@
       </c>
       <c r="G18" s="4">
         <f t="shared" si="0"/>
-        <v>16.95</v>
+        <v>25.424999999999997</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="J18" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
